--- a/medicine/Sexualité et sexologie/Ken_Park/Ken_Park.xlsx
+++ b/medicine/Sexualité et sexologie/Ken_Park/Ken_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ken Park est un film américain de Larry Clark et Edward Lachman, sorti en 2002. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre jeunes Californiens de Visalia, après le suicide de Ken Park, sont diversement maltraités par leurs familles.
 Claude subit les agressions constantes de son père culturiste qui l'accuse d'être homosexuel, lui dit sa honte d'être son père et le persécute (il tentera finalement d'abuser de lui).
@@ -546,9 +560,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nombreuses scènes violentes et surtout explicitement érotiques ont entraîné de multiples problèmes et restrictions de diffusion, notamment dans les pays anglo-saxons. On peut par exemple voir Tate éjaculer après une auto-strangulation. Le film a été interdit aux moins de 18 ans dans plusieurs pays, comme l'Italie, la Norvège, ou le Japon, et totalement interdit en Australie[1]. En France, le film a d'abord été interdit aux moins de 16 ans, puis réévalué et interdit aux moins de 18 ans par le conseil d'État en février 2004[2]. Cela n'empêche pas son exploitation en salles et dans le circuit commercial traditionnel, mais de façon restreinte et cela compromet sa diffusion à la télévision.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nombreuses scènes violentes et surtout explicitement érotiques ont entraîné de multiples problèmes et restrictions de diffusion, notamment dans les pays anglo-saxons. On peut par exemple voir Tate éjaculer après une auto-strangulation. Le film a été interdit aux moins de 18 ans dans plusieurs pays, comme l'Italie, la Norvège, ou le Japon, et totalement interdit en Australie. En France, le film a d'abord été interdit aux moins de 16 ans, puis réévalué et interdit aux moins de 18 ans par le conseil d'État en février 2004. Cela n'empêche pas son exploitation en salles et dans le circuit commercial traditionnel, mais de façon restreinte et cela compromet sa diffusion à la télévision.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Réalisation : Larry Clark, Edward Lachman
 Production : Kees Kasander, Jean-Louis Piel (États-Unis, France, Pays-Bas)
@@ -611,7 +629,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>James Ransone (VF : Aurélien Ringelheim) : Tate
 James Bullard : Shawn
